--- a/genshin/433984278939584139_2020-09-12_12-00-39.xlsx
+++ b/genshin/433984278939584139_2020-09-12_12-00-39.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-02-01 08:43:41</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44228.36366898148</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:42:43</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44177.11299768519</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -697,10 +709,8 @@
           <t>3634637784</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-10-25 01:15:56</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44129.05273148148</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,10 +786,8 @@
           <t>3634637784</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-10-25 00:14:38</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44129.01016203704</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -855,10 +863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-10-24 20:00:46</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44128.83386574074</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -934,10 +940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-17 10:37:33</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44091.44274305556</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1009,10 +1013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-16 23:35:43</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44090.98313657408</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1072,10 +1074,8 @@
           <t>3498239267</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-16 17:09:26</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44090.71488425926</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1143,10 +1143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-16 16:07:16</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44090.67171296296</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1210,10 +1208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-16 14:16:51</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44090.59503472222</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1285,10 +1281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-16 09:18:54</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44090.388125</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1348,10 +1342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-16 09:14:44</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44090.38523148148</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1419,10 +1411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-15 19:46:45</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44089.82413194444</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1498,10 +1488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-15 16:44:05</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44089.69728009259</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1569,10 +1557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-15 14:43:06</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44089.61326388889</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1640,10 +1626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-15 13:21:08</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44089.55634259259</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1711,10 +1695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-15 11:20:13</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44089.47237268519</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1782,10 +1764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-15 09:47:51</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44089.40822916666</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1849,10 +1829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-15 07:46:59</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44089.32429398148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1916,10 +1894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-15 03:10:57</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44089.13260416667</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1987,10 +1963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:31:11</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44089.02165509259</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2058,10 +2032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:02:26</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44088.83502314815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2129,10 +2101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:00:57</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44088.79232638889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2196,10 +2166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:19:52</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44088.7637962963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2272,10 +2240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:26:20</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44088.68495370371</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2343,10 +2309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:27:19</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44088.64396990741</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2415,10 +2379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:07:10</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44088.62997685185</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2486,10 +2448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:38:01</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44088.60973379629</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2562,10 +2522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-14 13:47:56</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44088.5749537037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2641,10 +2599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-14 13:35:15</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44088.56614583333</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2712,10 +2668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-14 13:02:29</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44088.5433912037</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2787,10 +2741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:46:43</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44088.53244212963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2862,10 +2814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:15:27</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44088.51072916666</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2933,10 +2883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-14 06:04:16</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44088.25296296296</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3012,10 +2960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:47:31</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44087.99133101852</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3086,10 +3032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:47:31</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44087.99133101852</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3165,10 +3109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:17:02</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44087.97016203704</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3232,10 +3174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:46:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44087.9490162037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3299,10 +3239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:36:59</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44087.94234953704</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3370,10 +3308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:57:29</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44087.91491898148</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3437,10 +3373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:44:48</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44087.90611111111</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3509,10 +3443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:34:00</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44087.89861111111</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3576,10 +3508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:29:57</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44087.89579861111</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3651,10 +3581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:22:04</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44087.89032407408</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3726,10 +3654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:14:05</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44087.88478009259</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3797,10 +3723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:04:23</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44087.87804398148</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3868,10 +3792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:37:18</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44087.81756944444</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3943,10 +3865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:15:07</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44087.80216435185</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4010,10 +3930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:13:09</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44087.80079861111</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4085,10 +4003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:03:35</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44087.79415509259</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4160,10 +4076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-13 18:32:12</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44087.77236111111</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4223,10 +4137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-13 16:27:48</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44087.68597222222</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4294,10 +4206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-13 15:54:18</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44087.66270833334</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4365,10 +4275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-13 15:29:24</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44087.64541666667</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4444,10 +4352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-13 15:07:19</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44087.63008101852</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4511,10 +4417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-13 15:00:41</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44087.62547453704</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4582,10 +4486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-13 14:56:46</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44087.62275462963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4661,10 +4563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-13 14:38:21</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44087.60996527778</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4732,10 +4632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-13 14:32:49</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44087.60612268518</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4803,10 +4701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-13 14:09:35</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44087.58998842593</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4882,10 +4778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-13 13:34:29</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44087.56561342593</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4949,10 +4843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-13 13:17:11</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44087.55359953704</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5028,10 +4920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-13 12:52:19</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44087.53633101852</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5107,10 +4997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-13 12:50:11</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44087.53484953703</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5179,10 +5067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-13 12:26:53</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44087.51866898148</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5246,10 +5132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-13 12:11:51</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44087.50822916667</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5317,10 +5201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-13 12:00:46</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44087.50053240741</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5380,10 +5262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-13 11:59:19</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44087.49952546296</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5459,10 +5339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-13 11:58:05</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44087.49866898148</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5530,10 +5408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-13 10:37:27</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44087.44267361111</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5609,10 +5485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-13 10:36:04</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44087.44171296297</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5688,10 +5562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-13 10:21:01</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44087.43126157407</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5763,10 +5635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-13 10:11:40</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44087.42476851852</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5838,10 +5708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-13 09:57:25</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44087.41487268519</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5917,10 +5785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-13 09:48:55</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44087.40896990741</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5996,10 +5862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-13 08:57:57</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44087.37357638889</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6067,10 +5931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-13 08:21:25</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44087.34820601852</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6138,10 +6000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-13 08:14:42</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44087.34354166667</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6209,10 +6069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-13 07:24:32</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44087.3087037037</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6276,10 +6134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-13 06:54:15</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44087.28767361111</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6343,10 +6199,8 @@
           <t>3486454684</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-13 06:10:15</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44087.25711805555</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -6410,10 +6264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-13 04:23:45</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44087.18315972222</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6481,10 +6333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-13 04:22:56</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44087.1825925926</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6548,10 +6398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-13 04:21:45</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44087.18177083333</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6627,10 +6475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-13 04:20:19</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44087.18077546296</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6694,10 +6540,8 @@
           <t>3483397781</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-13 03:48:04</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44087.15837962963</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6773,10 +6617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-13 03:06:27</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44087.12947916667</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6848,10 +6690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-13 02:06:41</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44087.08797453704</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6919,10 +6759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-13 02:05:00</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44087.08680555555</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6982,10 +6820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-13 02:02:46</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44087.08525462963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7049,10 +6885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:43:43</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44087.07202546296</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7120,10 +6954,8 @@
           <t>3483310294</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:39:23</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44087.06901620371</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7199,10 +7031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:23:49</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44087.05820601852</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7270,10 +7100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:19:27</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44087.05517361111</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7337,10 +7165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:49:06</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44087.03409722223</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7419,10 +7245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:27:13</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44087.01890046296</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7490,10 +7314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:16:07</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44087.01119212963</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7561,10 +7383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:08:00</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44087.00555555556</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7640,10 +7460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:53:43</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44086.99563657407</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7707,10 +7525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:48:36</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44086.99208333333</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7774,10 +7590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:39:48</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44086.98597222222</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7841,10 +7655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:38:20</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44086.9849537037</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7920,10 +7732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:34:35</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44086.98234953704</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7991,10 +7801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:29:52</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44086.97907407407</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8058,10 +7866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:28:28</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44086.97810185186</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8129,10 +7935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:15:41</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44086.96922453704</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8200,10 +8004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:14:57</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44086.96871527778</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8271,10 +8073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:12:54</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44086.96729166667</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8338,10 +8138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:01:10</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44086.95914351852</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8405,10 +8203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:41:12</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44086.94527777778</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8476,10 +8272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:32:36</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44086.93930555556</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8547,10 +8341,8 @@
           <t>3485556015</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:28:08</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44086.93620370371</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8614,10 +8406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:25:44</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44086.93453703704</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8685,10 +8475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:09:40</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44086.92337962963</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8748,10 +8536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:58:53</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44086.9158912037</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8827,10 +8613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:49:19</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44086.90924768519</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8898,10 +8682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:39:42</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44086.90256944444</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8969,10 +8751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:02:58</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44086.87706018519</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9040,10 +8820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:54:29</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44086.87116898148</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9111,10 +8889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:26:57</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44086.85204861111</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9178,10 +8954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:06:12</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44086.83763888889</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9257,10 +9031,8 @@
           <t>3484864457</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:56:50</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44086.83113425926</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9328,10 +9100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:53:18</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44086.82868055555</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9395,10 +9165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:52:13</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44086.82792824074</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9466,10 +9234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:52:03</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44086.8278125</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9545,10 +9311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:50:45</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44086.82690972222</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9608,10 +9372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:48:33</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44086.82538194444</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9671,10 +9433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:45:09</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44086.82302083333</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9738,10 +9498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:36:40</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44086.81712962963</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9813,10 +9571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:36:26</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44086.81696759259</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9884,10 +9640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:29:02</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44086.81182870371</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9955,10 +9709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:24:05</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44086.8083912037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10026,10 +9778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:11:36</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44086.79972222223</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10093,10 +9843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:09:27</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44086.79822916666</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10160,10 +9908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:03:23</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44086.7940162037</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10227,10 +9973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:00:35</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44086.79207175926</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10306,10 +10050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:51:11</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44086.78554398148</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10369,10 +10111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:35:03</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44086.77434027778</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10436,10 +10176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:28:57</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44086.77010416667</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10499,10 +10237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:26:01</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44086.76806712963</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10570,10 +10306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:25:38</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44086.76780092593</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10637,10 +10371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:24:12</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44086.76680555556</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10712,10 +10444,8 @@
           <t>3484434397</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:16:26</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44086.76141203703</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10791,10 +10521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:16:03</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44086.76114583333</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10870,10 +10598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:14:25</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44086.76001157407</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10949,10 +10675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:10:19</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44086.75716435185</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11024,10 +10748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-12 18:04:47</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44086.75332175926</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11103,10 +10825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:56:55</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44086.7478587963</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11174,10 +10894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:56:39</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44086.74767361111</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11245,10 +10963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:56:12</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44086.74736111111</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11324,10 +11040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:49:58</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44086.74303240741</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11399,10 +11113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:47:32</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44086.74134259259</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11478,10 +11190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:37:05</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44086.73408564815</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11553,10 +11263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:29:56</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44086.72912037037</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11620,10 +11328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:29:42</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44086.72895833333</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11687,10 +11393,8 @@
           <t>3484229384</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:25:10</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44086.72581018518</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11758,10 +11462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:24:15</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44086.72517361111</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11821,10 +11523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:22:43</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44086.7241087963</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11900,10 +11600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:18:50</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44086.72141203703</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11980,10 +11678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:16:34</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44086.71983796296</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12047,10 +11743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:13:49</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44086.71792824074</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12110,10 +11804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:13:23</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44086.71762731481</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12185,10 +11877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:10:03</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44086.7153125</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12261,10 +11951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:10:02</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44086.71530092593</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12336,10 +12024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:09:34</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44086.71497685185</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12407,10 +12093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:06:17</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44086.71269675926</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12482,10 +12166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:06:01</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44086.71251157407</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12557,10 +12239,8 @@
           <t>3484148728</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-12 17:03:12</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44086.71055555555</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12638,10 +12318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:54:46</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44086.70469907407</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12709,10 +12387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:53:28</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44086.70379629629</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12791,10 +12467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:48:52</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44086.70060185185</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12866,10 +12540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:48:33</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44086.70038194444</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12945,10 +12617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:48:11</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44086.70012731481</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13020,10 +12690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:47:18</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44086.69951388889</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13091,10 +12759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:46:03</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44086.69864583333</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13158,10 +12824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:45:03</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44086.69795138889</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13225,10 +12889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:44:34</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44086.69761574074</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13296,10 +12958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:35:29</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44086.69130787037</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13359,10 +13019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:34:19</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44086.69049768519</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13434,10 +13092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:32:12</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44086.68902777778</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13497,10 +13153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:26:58</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44086.68539351852</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13573,10 +13227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:24:44</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44086.6838425926</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13652,10 +13304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:21:49</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44086.68181712963</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13727,10 +13377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:19:49</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44086.68042824074</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13802,10 +13450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:17:58</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44086.67914351852</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13881,10 +13527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:13:49</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44086.67626157407</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13960,10 +13604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:12:30</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44086.67534722222</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14027,10 +13669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:11:46</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44086.67483796296</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14098,10 +13738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:04:37</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44086.66987268518</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14173,10 +13811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:01:41</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44086.66783564815</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14252,10 +13888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:00:37</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44086.66709490741</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14323,10 +13957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:59:08</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44086.66606481482</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14394,10 +14026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:57:27</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44086.66489583333</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14465,10 +14095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:56:54</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44086.66451388889</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14540,10 +14168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:56:35</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44086.66429398148</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14607,10 +14233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:56:18</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44086.66409722222</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14682,10 +14306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:54:59</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44086.66318287037</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14749,10 +14371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:53:10</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44086.6619212963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14820,10 +14440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:52:57</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44086.66177083334</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14887,10 +14505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:52:47</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44086.66165509259</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14966,10 +14582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:47:57</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44086.65829861111</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15037,10 +14651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:46:28</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44086.65726851852</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15104,10 +14716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:45:29</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44086.65658564815</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15179,10 +14789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:42:16</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44086.65435185185</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15246,10 +14854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:42:04</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44086.65421296296</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15317,10 +14923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:41:22</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44086.65372685185</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15384,10 +14988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:40:14</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44086.65293981481</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15451,10 +15053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:39:49</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44086.65265046297</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15514,10 +15114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:36:07</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44086.65008101852</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15577,10 +15175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:33:26</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44086.64821759259</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15648,10 +15244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:32:24</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44086.6475</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15715,10 +15309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:28:15</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44086.64461805556</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15794,10 +15386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:26:04</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44086.64310185185</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15861,10 +15451,8 @@
           <t>3483825861</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:23:47</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44086.6415162037</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -15932,10 +15520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:22:29</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44086.64061342592</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16004,10 +15590,8 @@
           <t>3483397781</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:22:11</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44086.64040509259</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16075,10 +15659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:21:37</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44086.64001157408</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16150,10 +15732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:20:10</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44086.63900462963</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16217,10 +15797,8 @@
           <t>3483397781</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:18:23</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44086.6377662037</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16284,10 +15862,8 @@
           <t>3483310294</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:18:20</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44086.63773148148</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16355,10 +15931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:17:22</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44086.63706018519</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16426,10 +16000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:16:50</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44086.63668981481</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16504,10 +16076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:15:37</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44086.63584490741</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16571,10 +16141,8 @@
           <t>3483310294</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:12:57</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44086.63399305556</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16642,10 +16210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:11:25</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44086.63292824074</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16723,10 +16289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:09:30</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44086.63159722222</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16794,10 +16358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:08:39</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44086.63100694444</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16857,10 +16419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:05:28</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44086.6287962963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16936,10 +16496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:05:11</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44086.62859953703</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17011,10 +16569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:04:38</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44086.6282175926</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17082,10 +16638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:04:02</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44086.62780092593</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17149,10 +16703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:00:37</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44086.62542824074</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17224,10 +16776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-12 15:00:09</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44086.62510416667</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17295,10 +16845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:54:41</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44086.62130787037</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17362,10 +16910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:53:44</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44086.62064814815</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17433,10 +16979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:50:22</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44086.61831018519</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17496,10 +17040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:47:05</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44086.61603009259</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17567,10 +17109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:43:55</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44086.61383101852</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17638,10 +17178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:42:24</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44086.61277777778</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17717,10 +17255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:40:18</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44086.61131944445</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17788,10 +17324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:38:37</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44086.61015046296</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17855,10 +17389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:37:40</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44086.60949074074</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -17926,10 +17458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:37:05</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44086.60908564815</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18001,10 +17531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:35:36</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44086.60805555555</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18068,10 +17596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:35:01</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44086.60765046296</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18135,10 +17661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:34:56</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44086.60759259259</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18214,10 +17738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:34:08</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44086.60703703704</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18286,10 +17808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:32:31</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44086.60591435185</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18349,10 +17869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:31:40</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44086.60532407407</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18420,10 +17938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:31:34</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44086.60525462963</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18491,10 +18007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:30:47</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44086.60471064815</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18554,10 +18068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:30:36</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44086.60458333333</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18625,10 +18137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:28:41</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44086.60325231482</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18696,10 +18206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:27:52</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44086.60268518519</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18767,10 +18275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:26:50</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44086.60196759259</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18838,10 +18344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:26:09</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44086.60149305555</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -18913,10 +18417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:22:17</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44086.59880787037</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -18980,10 +18482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:21:24</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44086.59819444444</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19059,10 +18559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:15:12</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44086.59388888889</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19082,9 +18580,10 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M260">
-        <f>= ，没啥</f>
-        <v/>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>== ，没啥</t>
+        </is>
       </c>
       <c r="N260" t="n">
         <v>5</v>
@@ -19129,10 +18628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:12:36</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44086.59208333334</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19196,10 +18693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:12:16</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44086.59185185185</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19267,10 +18762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:10:55</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44086.59091435185</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19334,10 +18827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:10:55</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44086.59091435185</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19405,10 +18896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:10:51</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44086.59086805556</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19472,10 +18961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:09:00</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44086.58958333333</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19543,10 +19030,8 @@
           <t>3483397781</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:08:19</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44086.5891087963</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19622,10 +19107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:07:25</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44086.58848379629</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19693,10 +19176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:06:31</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44086.58785879629</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19760,10 +19241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:06:23</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44086.5877662037</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19835,10 +19314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:03:23</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44086.58568287037</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -19914,10 +19391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:02:53</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44086.58533564815</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -19989,10 +19464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-12 14:02:01</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44086.5847337963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20060,10 +19533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:59:32</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44086.58300925926</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20139,10 +19610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:58:28</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44086.58226851852</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20206,10 +19675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:58:28</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44086.58226851852</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20273,10 +19740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:58:12</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44086.58208333333</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20348,10 +19813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:56:38</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44086.58099537037</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20419,10 +19882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:56:24</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44086.58083333333</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20482,10 +19943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:54:50</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44086.57974537037</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20561,10 +20020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:54:28</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44086.57949074074</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20636,10 +20093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:53:49</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44086.57903935185</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20711,10 +20166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:53:09</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44086.57857638889</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20790,10 +20243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:51:31</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44086.57744212963</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20866,10 +20317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:49:55</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44086.57633101852</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -20945,10 +20394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:49:02</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44086.57571759259</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21020,10 +20467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:47:53</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44086.57491898148</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21091,10 +20536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:47:37</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44086.5747337963</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21158,10 +20601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:46:24</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44086.57388888889</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21221,10 +20662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:46:18</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44086.57381944444</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21284,10 +20723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:45:58</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44086.57358796296</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21359,10 +20796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:45:46</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44086.57344907407</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21430,10 +20865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:45:28</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44086.57324074074</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21509,10 +20942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:44:08</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44086.57231481482</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21584,10 +21015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:44:02</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44086.57224537037</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21663,10 +21092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:43:18</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44086.57173611111</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21734,10 +21161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:42:44</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44086.57134259259</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21805,10 +21230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:42:42</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44086.57131944445</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21880,10 +21303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:42:18</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44086.57104166667</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -21951,10 +21372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:41:59</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44086.57082175926</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22030,10 +21449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:41:59</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44086.57082175926</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22101,10 +21518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:41:57</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44086.57079861111</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22172,10 +21587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:40:29</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44086.56978009259</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22243,10 +21656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:39:36</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44086.56916666667</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22310,10 +21721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:38:59</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44086.56873842593</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22385,10 +21794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:37:52</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44086.56796296296</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22464,10 +21871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:37:31</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44086.56771990741</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22543,10 +21948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:37:07</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44086.56744212963</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22610,10 +22013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:34:54</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44086.56590277778</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22681,10 +22082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:34:36</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44086.56569444444</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22752,10 +22151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:33:31</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44086.56494212963</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22831,10 +22228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:33:14</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44086.56474537037</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -22906,10 +22301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:33:13</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44086.56473379629</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -22977,10 +22370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:32:51</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44086.56447916666</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23052,10 +22443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:32:42</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44086.564375</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23131,10 +22520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:32:35</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44086.56429398148</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23202,10 +22589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:31:42</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44086.56368055556</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23281,10 +22666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:31:34</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44086.56358796296</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23352,10 +22735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:31:27</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44086.56350694445</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23423,10 +22804,8 @@
           <t>3483455539</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:30:44</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44086.56300925926</v>
       </c>
       <c r="I320" t="n">
         <v>29</v>
@@ -23495,10 +22874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:30:01</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44086.56251157408</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23562,10 +22939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:29:44</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44086.56231481482</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23637,10 +23012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:29:25</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44086.56209490741</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23704,10 +23077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:28:57</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44086.56177083333</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23779,10 +23150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:28:39</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44086.5615625</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23854,10 +23223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:28:29</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44086.56144675926</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -23921,10 +23288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:27:56</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44086.56106481481</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -23992,10 +23357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:27:52</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44086.56101851852</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24059,10 +23422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:27:46</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44086.56094907408</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24130,10 +23491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:26:15</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44086.55989583334</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24193,10 +23552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:24:29</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44086.55866898148</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24260,10 +23617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:24:15</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44086.55850694444</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24339,10 +23694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:24:04</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44086.55837962963</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24406,10 +23759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:22:56</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44086.5575925926</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24477,10 +23828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:22:30</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44086.55729166666</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24548,10 +23897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:22:05</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44086.55700231482</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24623,10 +23970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:21:26</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44086.55655092592</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24694,10 +24039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:21:18</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44086.55645833333</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24765,10 +24108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:21:16</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44086.55643518519</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24836,10 +24177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:20:52</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44086.55615740741</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -24915,10 +24254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:20:48</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44086.55611111111</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -24986,10 +24323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:20:41</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44086.55603009259</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25061,10 +24396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:20:35</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44086.55596064815</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25128,10 +24461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:19:53</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44086.55547453704</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25191,10 +24522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:19:51</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44086.55545138889</v>
       </c>
       <c r="I345" t="n">
         <v>4</v>
@@ -25258,10 +24587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:18:57</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44086.55482638889</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25333,10 +24660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:18:52</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44086.55476851852</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25400,10 +24725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:18:46</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44086.55469907408</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25467,10 +24790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:18:36</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44086.55458333333</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25542,10 +24863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:18:09</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44086.55427083333</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25624,10 +24943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:17:03</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44086.55350694444</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25691,10 +25008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:16:50</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44086.55335648148</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25754,10 +25069,8 @@
           <t>3483397781</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:16:49</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44086.55334490741</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -25825,10 +25138,8 @@
           <t>3483396930</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:16:12</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44086.55291666667</v>
       </c>
       <c r="I354" t="n">
         <v>5</v>
@@ -25904,10 +25215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:16:00</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44086.55277777778</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -25972,10 +25281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:15:38</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44086.55252314815</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26043,10 +25350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:15:25</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44086.55237268518</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26110,10 +25415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:14:47</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44086.55193287037</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26177,10 +25480,8 @@
           <t>3483384514</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:14:22</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44086.55164351852</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26256,10 +25557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:13:23</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44086.55096064815</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26335,10 +25634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:12:56</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44086.55064814815</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26410,10 +25707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:12:46</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44086.5505324074</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26485,10 +25780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:12:12</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44086.55013888889</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26552,10 +25845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:12:09</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44086.55010416666</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26619,10 +25910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:12:02</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44086.55002314815</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26686,10 +25975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:11:34</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44086.54969907407</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26757,10 +26044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:11:26</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44086.54960648148</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -26828,10 +26113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:11:25</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44086.54959490741</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -26899,10 +26182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:10:33</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44086.54899305556</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -26966,10 +26247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:10:03</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44086.54864583333</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27037,10 +26316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:09:46</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44086.54844907407</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27104,10 +26381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:08:46</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44086.54775462963</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27183,10 +26458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:08:01</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44086.54723379629</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27254,10 +26527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:07:50</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44086.54710648148</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27329,10 +26600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:07:48</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44086.54708333333</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27396,10 +26665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:07:41</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44086.54700231482</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27467,10 +26734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:07:09</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44086.54663194445</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27534,10 +26799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:07:09</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44086.54663194445</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27605,10 +26868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:06:53</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44086.54644675926</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27684,10 +26945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:06:36</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44086.54625</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27763,10 +27022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:06:16</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44086.54601851852</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -27834,10 +27091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:06:00</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44086.54583333333</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -27913,10 +27168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:05:59</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44086.54582175926</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -27980,10 +27233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:05:27</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44086.54545138889</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28047,10 +27298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:05:24</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44086.54541666667</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28122,10 +27371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:04:41</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44086.54491898148</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28193,10 +27440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:04:30</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44086.54479166667</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28272,10 +27517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:04:02</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44086.54446759259</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28343,10 +27586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:04:01</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44086.54445601852</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28410,10 +27651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:03:53</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44086.54436342593</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28481,10 +27720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:03:48</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44086.54430555556</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28548,10 +27785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:03:19</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44086.5439699074</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28619,10 +27854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:02:58</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44086.54372685185</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -28694,10 +27927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:02:57</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44086.54371527778</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -28769,10 +28000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:02:28</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44086.54337962963</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -28840,10 +28069,8 @@
           <t>3483310294</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:02:12</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44086.54319444444</v>
       </c>
       <c r="I396" t="n">
         <v>11</v>
@@ -28903,10 +28130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:02:06</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44086.543125</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -28974,10 +28199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:01:56</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44086.54300925926</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29037,10 +28260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:01:04</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44086.54240740741</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29104,10 +28325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:00:45</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44086.5421875</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29179,10 +28398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-12 13:00:15</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44086.54184027778</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29250,10 +28467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:59:18</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44086.54118055556</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29325,10 +28540,8 @@
           <t>3483310294</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:59:10</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44086.54108796296</v>
       </c>
       <c r="I403" t="n">
         <v>8</v>
@@ -29396,10 +28609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:59:06</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44086.54104166666</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29478,10 +28689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:58:51</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44086.54086805556</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29549,10 +28758,8 @@
           <t>3483310294</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:58:46</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44086.54081018519</v>
       </c>
       <c r="I406" t="n">
         <v>2</v>
@@ -29620,10 +28827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:58:32</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44086.54064814815</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29691,10 +28896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:57:38</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44086.54002314815</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -29770,10 +28973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:57:28</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44086.53990740741</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -29849,10 +29050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:57:12</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44086.53972222222</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -29920,10 +29119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:56:36</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44086.53930555555</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -29995,10 +29192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:56:22</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44086.53914351852</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30070,10 +29265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:56:21</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44086.53913194445</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30141,10 +29334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:56:11</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44086.5390162037</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30216,10 +29407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:56:06</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44086.53895833333</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30283,10 +29472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:56:02</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44086.53891203704</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30362,10 +29549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:56:01</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44086.53890046296</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30441,10 +29626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:55:59</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44086.53887731482</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -30512,10 +29695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:55:40</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44086.53865740741</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30583,10 +29764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:55:17</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44086.53839120371</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30662,10 +29841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:55:15</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44086.53836805555</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30734,10 +29911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:55:13</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44086.53834490741</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -30809,10 +29984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:54:56</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44086.53814814815</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -30880,10 +30053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:54:28</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44086.53782407408</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -30959,10 +30130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:54:18</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44086.53770833334</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31030,10 +30199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:54:01</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44086.53751157408</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31112,10 +30279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:53:55</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44086.53744212963</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31191,10 +30356,8 @@
           <t>3483304481</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:53:38</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44086.53724537037</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31266,10 +30429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:53:33</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44086.5371875</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31337,10 +30498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:53:02</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44086.53682870371</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31416,10 +30575,8 @@
           <t>3483310294</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:52:38</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44086.53655092593</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31487,10 +30644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:52:37</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44086.53653935185</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31562,10 +30717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:52:31</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44086.53646990741</v>
       </c>
       <c r="I433" t="n">
         <v>3</v>
@@ -31641,10 +30794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:52:20</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44086.53634259259</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31720,10 +30871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:52:19</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44086.53633101852</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -31795,10 +30944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:52:10</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44086.53622685185</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -31870,10 +31017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:52:03</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44086.53614583334</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -31933,10 +31078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:52:01</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44086.53612268518</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32004,10 +31147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:51:50</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44086.53599537037</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32079,10 +31220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:51:44</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44086.53592592593</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32150,10 +31289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:51:27</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44086.53572916667</v>
       </c>
       <c r="I441" t="n">
         <v>2</v>
@@ -32225,10 +31362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:51:18</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44086.535625</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32298,10 +31433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:50:42</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44086.53520833333</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32369,10 +31502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:50:40</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44086.53518518519</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32436,10 +31567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:50:33</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44086.53510416667</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32503,10 +31632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:50:14</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44086.53488425926</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32581,10 +31708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:50:05</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44086.5347800926</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32652,10 +31777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:49:52</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44086.53462962963</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32723,10 +31846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:49:37</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44086.53445601852</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -32794,10 +31915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:49:22</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44086.53428240741</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -32861,10 +31980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:49:20</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44086.53425925926</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -32940,10 +32057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:49:17</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44086.53422453703</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33011,10 +32126,8 @@
           <t>3483295555</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:49:06</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44086.53409722223</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33078,10 +32191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:49:03</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44086.5340625</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33153,10 +32264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:48:59</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44086.5340162037</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33228,10 +32337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:48:57</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44086.53399305556</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33299,10 +32406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:48:51</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44086.53392361111</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33362,10 +32467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:48:37</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44086.53376157407</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33437,10 +32540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:47:27</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44086.53295138889</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33504,10 +32605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:47:16</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44086.53282407407</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33575,10 +32674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:47:15</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44086.5328125</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33654,10 +32751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:47:10</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44086.53275462963</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33725,10 +32820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:47:09</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44086.53274305556</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -33792,10 +32885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:45</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44086.53246527778</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -33859,10 +32950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:34</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44086.53233796296</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -33933,10 +33022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:16</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44086.53212962963</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34000,10 +33087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:14</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44086.53210648148</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34067,10 +33152,8 @@
           <t>3483281660</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:46:09</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44086.53204861111</v>
       </c>
       <c r="I468" t="n">
         <v>3</v>
@@ -34134,10 +33217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:45:41</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44086.53172453704</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34213,10 +33294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:45:31</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44086.53160879629</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34276,10 +33355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:45:15</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44086.53142361111</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34355,10 +33432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:51</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44086.53114583333</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34418,10 +33493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:49</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44086.53112268518</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34489,10 +33562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:48</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44086.53111111111</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34564,10 +33635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:35</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44086.53096064815</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34643,10 +33712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:31</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44086.53091435185</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -34722,10 +33789,8 @@
           <t>3483272316</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:44:08</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44086.53064814815</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -34801,10 +33866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:43:44</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44086.53037037037</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -34868,10 +33931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:43:29</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44086.53019675926</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -34947,10 +34008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:43:03</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44086.52989583334</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35014,10 +34073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:42:31</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44086.52952546296</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35089,10 +34146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:42:27</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44086.52947916667</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35156,10 +34211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:56</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44086.52912037037</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35231,10 +34284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:52</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44086.52907407407</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35306,10 +34357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:51</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44086.5290625</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35381,10 +34430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:45</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44086.52899305556</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35448,10 +34495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:23</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44086.52873842593</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -35519,10 +34564,8 @@
           <t>3483258568</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:13</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44086.52862268518</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35594,10 +34637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:12</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44086.52861111111</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35674,10 +34715,8 @@
           <t>3483254737</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:41:00</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44086.52847222222</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -35745,10 +34784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:40:52</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44086.52837962963</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -35816,10 +34853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:40:51</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44086.52836805556</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -35891,10 +34926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:40:45</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44086.52829861111</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -35958,10 +34991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:40:42</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44086.52826388889</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36025,10 +35056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:40:32</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44086.52814814815</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36096,10 +35125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:40:23</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44086.52804398148</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36171,10 +35198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:40:06</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44086.52784722222</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36242,10 +35267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:49</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44086.52765046297</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36317,10 +35340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:49</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44086.52765046297</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36388,10 +35409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:34</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44086.52747685185</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36451,10 +35470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:28</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44086.5274074074</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36530,10 +35547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:19</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44086.52730324074</v>
       </c>
       <c r="I502" t="n">
         <v>19</v>
@@ -36609,10 +35624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:13</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44086.5272337963</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36672,10 +35685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:07</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44086.52716435185</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -36744,10 +35755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:39:00</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44086.52708333333</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -36815,10 +35824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:38:59</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44086.52707175926</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -36882,10 +35889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:38:46</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44086.5269212963</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -36961,10 +35966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:38:38</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44086.5268287037</v>
       </c>
       <c r="I508" t="n">
         <v>2</v>
@@ -37032,10 +36035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:38:31</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44086.52674768519</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37103,10 +36104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:38:03</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44086.52642361111</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37170,10 +36169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:46</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44086.52622685185</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37249,10 +36246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:43</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44086.52619212963</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37316,10 +36311,8 @@
           <t>3483243673</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:31</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44086.52605324074</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37387,10 +36380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:19</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44086.52591435185</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37458,10 +36449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:07</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44086.52577546296</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37537,10 +36526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:05</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44086.52575231482</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37612,10 +36599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:37:01</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44086.52570601852</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -37691,10 +36676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:55</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44086.52563657407</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -37770,10 +36753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:51</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44086.52559027778</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -37841,10 +36822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:49</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44086.52556712963</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -37908,10 +36887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:44</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44086.52550925926</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -37979,10 +36956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:35</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44086.52540509259</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38054,10 +37029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:25</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44086.52528935186</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38121,10 +37094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:21</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44086.52524305556</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38192,10 +37163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:11</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44086.52512731482</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38259,10 +37228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:36:02</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44086.52502314815</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38326,10 +37293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:35:59</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44086.52498842592</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38393,10 +37358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:35:27</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44086.52461805556</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38456,10 +37419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:35:15</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44086.52447916667</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38535,10 +37496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:35:06</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44086.524375</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38610,10 +37569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:35:04</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44086.52435185185</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
@@ -38689,10 +37646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:34:59</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44086.52429398148</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -38768,10 +37723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:34:59</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44086.52429398148</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -38847,10 +37800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:34:59</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44086.52429398148</v>
       </c>
       <c r="I534" t="n">
         <v>12</v>
@@ -38918,10 +37869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:34:57</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44086.52427083333</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39001,10 +37950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:34:40</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44086.52407407408</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39068,10 +38015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:34:17</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44086.52380787037</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39139,10 +38084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:34:15</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44086.52378472222</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39206,10 +38149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:53</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44086.52353009259</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39273,10 +38214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:32</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44086.52328703704</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39348,10 +38287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:28</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44086.52324074074</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39423,10 +38360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:15</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44086.52309027778</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39502,10 +38437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:14</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44086.52307870371</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39577,10 +38510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:13</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44086.52306712963</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -39640,10 +38571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:07</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44086.52299768518</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -39716,10 +38645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:33:04</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44086.52296296296</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -39787,10 +38714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:50</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44086.52280092592</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -39854,10 +38779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:42</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44086.52270833333</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -39921,10 +38844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:40</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44086.52268518518</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -39984,10 +38905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:39</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44086.52267361111</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40051,10 +38970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:35</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44086.52262731481</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40122,10 +39039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:24</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44086.5225</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40201,10 +39116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:17</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44086.52241898148</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40280,10 +39193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:16</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44086.52240740741</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40356,10 +39267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:32:01</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44086.5222337963</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40419,10 +39328,8 @@
           <t>3483217216</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:31:44</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44086.52203703704</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40486,10 +39393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:31:33</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44086.52190972222</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40561,10 +39466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:31:22</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44086.52178240741</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -40628,10 +39531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:31:09</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44086.52163194444</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -40707,10 +39608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:31:00</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44086.52152777778</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -40782,10 +39681,8 @@
           <t>3483214897</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:52</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44086.52143518518</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -40861,10 +39758,8 @@
           <t>3483214760</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:46</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44086.52136574074</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -40940,10 +39835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:43</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44086.52133101852</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41015,10 +39908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:37</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44086.52126157407</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41094,10 +39985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:34</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44086.52122685185</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41173,10 +40062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:30:22</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44086.52108796296</v>
       </c>
       <c r="I566" t="n">
         <v>1</v>
@@ -41240,10 +40127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:57</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44086.52079861111</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41307,10 +40192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:53</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44086.52075231481</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41378,10 +40261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:32</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44086.52050925926</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41451,10 +40332,8 @@
           <t>3483208885</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:29</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44086.52047453704</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41525,10 +40404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:29:03</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44086.52017361111</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -41600,10 +40477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:28:56</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44086.52009259259</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -41679,10 +40554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:28:54</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44086.52006944444</v>
       </c>
       <c r="I573" t="n">
         <v>3</v>
@@ -41754,10 +40627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:28:42</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44086.51993055556</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -41817,10 +40688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:28:18</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44086.51965277778</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -41888,10 +40757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:28:17</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44086.5196412037</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -41951,10 +40818,8 @@
           <t>3483211140</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:58</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44086.5194212963</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42022,10 +40887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:56</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44086.51939814815</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42093,10 +40956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:14</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44086.51891203703</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42156,10 +41017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:27:05</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44086.51880787037</v>
       </c>
       <c r="I580" t="n">
         <v>31</v>
@@ -42235,10 +41094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:26:41</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44086.5185300926</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42302,10 +41159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:26:40</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44086.51851851852</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42377,10 +41232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:26:21</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44086.51829861111</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42448,10 +41301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:26:20</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44086.51828703703</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -42519,10 +41370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:26:00</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44086.51805555556</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42598,10 +41447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:26:00</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44086.51805555556</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -42669,10 +41516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:50</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44086.51793981482</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -42740,10 +41585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:44</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44086.51787037037</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -42819,10 +41662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:43</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44086.51785879629</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -42882,10 +41723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:39</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44086.5178125</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -42945,10 +41784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:38</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44086.51780092593</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43024,10 +41861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:36</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44086.51777777778</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43099,10 +41934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:34</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44086.51775462963</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43178,10 +42011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:31</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44086.51771990741</v>
       </c>
       <c r="I594" t="n">
         <v>1</v>
@@ -43253,10 +42084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:23</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44086.51762731482</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43320,10 +42149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:21</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44086.51760416666</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -43395,10 +42222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:25:17</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44086.51755787037</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -43462,10 +42287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:56</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44086.51731481482</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -43541,10 +42364,8 @@
           <t>3483188068</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:50</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44086.51724537037</v>
       </c>
       <c r="I599" t="n">
         <v>9</v>
@@ -43616,10 +42437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:46</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44086.51719907407</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -43695,10 +42514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:44</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44086.51717592592</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -43766,10 +42583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:44</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44086.51717592592</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -43833,10 +42648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:39</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44086.51711805556</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -43904,10 +42717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:34</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44086.51706018519</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -43972,10 +42783,8 @@
           <t>3483192080</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:27</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44086.51697916666</v>
       </c>
       <c r="I605" t="n">
         <v>4</v>
@@ -44044,10 +42853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:20</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44086.51689814815</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44119,10 +42926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:16</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44086.51685185185</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44190,10 +42995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:14</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44086.5168287037</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44257,10 +43060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:12</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44086.51680555556</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -44328,10 +43129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:06</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44086.51673611111</v>
       </c>
       <c r="I610" t="n">
         <v>2</v>
@@ -44395,10 +43194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:24:04</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44086.51671296296</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44470,10 +43267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:53</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44086.51658564815</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -44537,10 +43332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:50</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44086.51655092592</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -44617,10 +43410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:47</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44086.5165162037</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -44684,10 +43475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:46</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44086.51650462963</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -44751,10 +43540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:41</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44086.51644675926</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -44830,10 +43617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:35</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44086.51637731482</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -44901,10 +43686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:33</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44086.51635416667</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -44976,10 +43759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:25</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44086.51626157408</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45051,10 +43832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:23</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44086.51623842592</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45127,10 +43906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:16</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44086.51615740741</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45194,10 +43971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:23:05</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44086.51603009259</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45257,10 +44032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:54</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44086.51590277778</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -45324,10 +44097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:50</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44086.51585648148</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -45395,10 +44166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:47</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44086.51582175926</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -45470,10 +44239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:39</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44086.51572916667</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -45541,10 +44308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:39</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44086.51572916667</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -45612,10 +44377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:36</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44086.51569444445</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -45691,10 +44454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:22</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44086.51553240741</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -45758,10 +44519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:02</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44086.51530092592</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -45839,10 +44598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:22:01</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44086.51528935185</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -45906,10 +44663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:59</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44086.51526620371</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -45973,10 +44728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:50</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44086.51516203704</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46044,10 +44797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:27</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44086.51489583333</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46115,10 +44866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:19</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44086.51480324074</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46182,10 +44931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:21:14</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44086.51474537037</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46253,10 +45000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:20:53</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44086.51450231481</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -46332,10 +45077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:20:50</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44086.51446759259</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -46411,10 +45154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:20:25</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44086.51417824074</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -46478,10 +45219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:20:21</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44086.51413194444</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -46545,10 +45284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:54</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44086.51381944444</v>
       </c>
       <c r="I641" t="n">
         <v>1</v>
@@ -46620,10 +45357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:42</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44086.51368055555</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -46687,10 +45422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:38</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44086.51363425926</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -46766,10 +45499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:27</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44086.51350694444</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -46845,10 +45576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:25</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44086.5134837963</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -46920,10 +45649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:25</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44086.5134837963</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -46995,10 +45722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:19:11</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44086.51332175926</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47068,10 +45793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:58</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44086.5131712963</v>
       </c>
       <c r="I648" t="n">
         <v>2</v>
@@ -47147,10 +45870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:57</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44086.51315972222</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -47214,10 +45935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:47</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44086.51304398148</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -47285,10 +46004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:37</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44086.51292824074</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -47360,10 +46077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:24</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44086.51277777777</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -47435,10 +46150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:18:19</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44086.5127199074</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -47506,10 +46219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:54</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44086.51243055556</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -47581,10 +46292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:38</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44086.51224537037</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -47656,10 +46365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:36</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44086.51222222222</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -47723,10 +46430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:33</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44086.5121875</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -47794,10 +46499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:10</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44086.5119212963</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -47869,10 +46572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:17:05</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44086.51186342593</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -47936,10 +46637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:43</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44086.5116087963</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -48007,10 +46706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:16</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44086.5112962963</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -48074,10 +46771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:10</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44086.51122685185</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -48153,10 +46848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:16:07</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44086.51119212963</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -48224,10 +46917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:53</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44086.5110300926</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -48295,10 +46986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:53</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44086.5110300926</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -48374,10 +47063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:53</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44086.5110300926</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -48453,10 +47140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:48</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44086.51097222222</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -48528,10 +47213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:26</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44086.5107175926</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -48599,10 +47282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:18</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44086.510625</v>
       </c>
       <c r="I669" t="n">
         <v>1</v>
@@ -48670,10 +47351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:15:11</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44086.51054398148</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -48737,10 +47416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:44</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44086.51023148148</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -48804,10 +47481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:44</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44086.51023148148</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
@@ -48875,10 +47550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:11</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44086.50984953704</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -48950,10 +47623,8 @@
           <t>3483144078</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:11</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44086.50984953704</v>
       </c>
       <c r="I674" t="n">
         <v>1</v>
@@ -49025,10 +47696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:14:02</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44086.50974537037</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -49092,10 +47761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:55</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44086.50966435186</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -49155,10 +47822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:49</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44086.50959490741</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -49230,10 +47895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:46</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44086.50956018519</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
@@ -49305,10 +47968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:38</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44086.50946759259</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -49380,10 +48041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:35</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44086.50943287037</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -49455,10 +48114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:31</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44086.50938657407</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -49526,10 +48183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:29</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44086.50936342592</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -49589,10 +48244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:29</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44086.50936342592</v>
       </c>
       <c r="I683" t="n">
         <v>170</v>
@@ -49656,10 +48309,8 @@
           <t>3483151990</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:21</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44086.50927083333</v>
       </c>
       <c r="I684" t="n">
         <v>5</v>
@@ -49731,10 +48382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:15</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44086.50920138889</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -49798,10 +48447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:13:14</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44086.50918981482</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -49865,10 +48512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:53</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44086.50894675926</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
@@ -49944,10 +48589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:22</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44086.50858796296</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -50020,10 +48663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:22</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44086.50858796296</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -50091,10 +48732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:19</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44086.50855324074</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -50170,10 +48809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:09</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44086.5084375</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -50241,10 +48878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:07</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44086.50841435185</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -50309,10 +48944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:05</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44086.5083912037</v>
       </c>
       <c r="I693" t="n">
         <v>61</v>
@@ -50380,10 +49013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:03</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44086.50836805555</v>
       </c>
       <c r="I694" t="n">
         <v>55</v>
@@ -50451,10 +49082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:12:02</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44086.50835648148</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
@@ -50526,10 +49155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:59</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44086.50832175926</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
@@ -50605,10 +49232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:56</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44086.50828703704</v>
       </c>
       <c r="I697" t="n">
         <v>1</v>
@@ -50684,10 +49309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:47</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44086.50818287037</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
@@ -50751,10 +49374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:43</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44086.50813657408</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -50830,10 +49451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:38</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44086.5080787037</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -50898,10 +49517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:34</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44086.50803240741</v>
       </c>
       <c r="I701" t="n">
         <v>2</v>
@@ -50973,10 +49590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:27</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44086.50795138889</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
@@ -51048,10 +49663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:26</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44086.50793981482</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
@@ -51119,10 +49732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:16</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44086.50782407408</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
@@ -51198,10 +49809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:07</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44086.50771990741</v>
       </c>
       <c r="I705" t="n">
         <v>1</v>
@@ -51277,10 +49886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:11:04</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44086.50768518518</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
@@ -51348,10 +49955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:51</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44086.50753472222</v>
       </c>
       <c r="I707" t="n">
         <v>5</v>
@@ -51423,10 +50028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:49</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44086.50751157408</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
@@ -51498,10 +50101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:44</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44086.50745370371</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -51573,10 +50174,8 @@
           <t>3483138473</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:42</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44086.50743055555</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
@@ -51648,10 +50247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:36</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44086.50736111111</v>
       </c>
       <c r="I711" t="n">
         <v>1</v>
@@ -51727,10 +50324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:29</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44086.50728009259</v>
       </c>
       <c r="I712" t="n">
         <v>73</v>
@@ -51794,10 +50389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:17</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44086.50714120371</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
@@ -51861,10 +50454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:10:16</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44086.50712962963</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
@@ -51928,10 +50519,8 @@
           <t>3483133067</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:59</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44086.50693287037</v>
       </c>
       <c r="I715" t="n">
         <v>5</v>
@@ -51995,10 +50584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:57</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44086.50690972222</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
@@ -52070,10 +50657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:57</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44086.50690972222</v>
       </c>
       <c r="I717" t="n">
         <v>1</v>
@@ -52141,10 +50726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:52</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44086.50685185185</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -52217,10 +50800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:49</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44086.50681712963</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
@@ -52284,10 +50865,8 @@
           <t>3483132723</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:42</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44086.50673611111</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
@@ -52359,10 +50938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:36</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44086.50666666667</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
@@ -52426,10 +51003,8 @@
           <t>3483127546</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:15</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44086.50642361111</v>
       </c>
       <c r="I722" t="n">
         <v>4</v>
@@ -52506,10 +51081,8 @@
           <t>3483136371</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:10</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44086.50636574074</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
@@ -52581,10 +51154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:05</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44086.50630787037</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
@@ -52648,10 +51219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:04</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44086.5062962963</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
@@ -52715,10 +51284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:03</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44086.50628472222</v>
       </c>
       <c r="I726" t="n">
         <v>395</v>
@@ -52786,10 +51353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:09:03</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44086.50628472222</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -52865,10 +51430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:59</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44086.50623842593</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
@@ -52940,10 +51503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:55</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44086.50619212963</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
@@ -53015,10 +51576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:55</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44086.50619212963</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -53086,10 +51645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:46</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44086.50608796296</v>
       </c>
       <c r="I731" t="n">
         <v>1</v>
@@ -53165,10 +51722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:42</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44086.50604166667</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
@@ -53243,10 +51798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:41</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44086.50603009259</v>
       </c>
       <c r="I733" t="n">
         <v>256</v>
@@ -53322,10 +51875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:34</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44086.50594907408</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
@@ -53401,10 +51952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:31</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44086.50591435185</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
@@ -53480,10 +52029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:29</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44086.50589120371</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
@@ -53555,10 +52102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:26</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44086.50585648148</v>
       </c>
       <c r="I737" t="n">
         <v>247</v>
@@ -53626,10 +52171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:24</t>
-        </is>
+      <c r="H738" s="1" t="n">
+        <v>44086.50583333334</v>
       </c>
       <c r="I738" t="n">
         <v>1</v>
@@ -53693,10 +52236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:20</t>
-        </is>
+      <c r="H739" s="1" t="n">
+        <v>44086.50578703704</v>
       </c>
       <c r="I739" t="n">
         <v>0</v>
@@ -53772,10 +52313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:19</t>
-        </is>
+      <c r="H740" s="1" t="n">
+        <v>44086.50577546296</v>
       </c>
       <c r="I740" t="n">
         <v>0</v>
@@ -53847,10 +52386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:15</t>
-        </is>
+      <c r="H741" s="1" t="n">
+        <v>44086.50572916667</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
@@ -53922,10 +52459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:11</t>
-        </is>
+      <c r="H742" s="1" t="n">
+        <v>44086.50568287037</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
@@ -53993,10 +52528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:07</t>
-        </is>
+      <c r="H743" s="1" t="n">
+        <v>44086.50563657407</v>
       </c>
       <c r="I743" t="n">
         <v>1</v>
@@ -54072,10 +52605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:07</t>
-        </is>
+      <c r="H744" s="1" t="n">
+        <v>44086.50563657407</v>
       </c>
       <c r="I744" t="n">
         <v>0</v>
@@ -54139,10 +52670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:03</t>
-        </is>
+      <c r="H745" s="1" t="n">
+        <v>44086.50559027777</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
@@ -54218,10 +52747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:08:02</t>
-        </is>
+      <c r="H746" s="1" t="n">
+        <v>44086.50557870371</v>
       </c>
       <c r="I746" t="n">
         <v>0</v>
@@ -54297,10 +52824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:54</t>
-        </is>
+      <c r="H747" s="1" t="n">
+        <v>44086.50548611111</v>
       </c>
       <c r="I747" t="n">
         <v>0</v>
@@ -54376,10 +52901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:50</t>
-        </is>
+      <c r="H748" s="1" t="n">
+        <v>44086.50543981481</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
@@ -54439,10 +52962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:47</t>
-        </is>
+      <c r="H749" s="1" t="n">
+        <v>44086.50540509259</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
@@ -54510,10 +53031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:39</t>
-        </is>
+      <c r="H750" s="1" t="n">
+        <v>44086.5053125</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
@@ -54585,10 +53104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:39</t>
-        </is>
+      <c r="H751" s="1" t="n">
+        <v>44086.5053125</v>
       </c>
       <c r="I751" t="n">
         <v>1</v>
@@ -54660,10 +53177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:36</t>
-        </is>
+      <c r="H752" s="1" t="n">
+        <v>44086.50527777777</v>
       </c>
       <c r="I752" t="n">
         <v>0</v>
@@ -54731,10 +53246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:30</t>
-        </is>
+      <c r="H753" s="1" t="n">
+        <v>44086.50520833334</v>
       </c>
       <c r="I753" t="n">
         <v>1</v>
@@ -54806,10 +53319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:30</t>
-        </is>
+      <c r="H754" s="1" t="n">
+        <v>44086.50520833334</v>
       </c>
       <c r="I754" t="n">
         <v>1</v>
@@ -54882,10 +53393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:30</t>
-        </is>
+      <c r="H755" s="1" t="n">
+        <v>44086.50520833334</v>
       </c>
       <c r="I755" t="n">
         <v>1</v>
@@ -54953,10 +53462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:20</t>
-        </is>
+      <c r="H756" s="1" t="n">
+        <v>44086.50509259259</v>
       </c>
       <c r="I756" t="n">
         <v>1</v>
@@ -55024,10 +53531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:18</t>
-        </is>
+      <c r="H757" s="1" t="n">
+        <v>44086.50506944444</v>
       </c>
       <c r="I757" t="n">
         <v>1</v>
@@ -55099,10 +53604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:18</t>
-        </is>
+      <c r="H758" s="1" t="n">
+        <v>44086.50506944444</v>
       </c>
       <c r="I758" t="n">
         <v>1</v>
@@ -55170,10 +53673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:15</t>
-        </is>
+      <c r="H759" s="1" t="n">
+        <v>44086.50503472222</v>
       </c>
       <c r="I759" t="n">
         <v>0</v>
@@ -55241,10 +53742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:07:04</t>
-        </is>
+      <c r="H760" s="1" t="n">
+        <v>44086.5049074074</v>
       </c>
       <c r="I760" t="n">
         <v>0</v>
@@ -55320,10 +53819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:06:55</t>
-        </is>
+      <c r="H761" s="1" t="n">
+        <v>44086.50480324074</v>
       </c>
       <c r="I761" t="n">
         <v>1</v>
@@ -55387,10 +53884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>2020-09-12 12:06:52</t>
-        </is>
+      <c r="H762" s="1" t="n">
+        <v>44086.50476851852</v>
       </c>
       <c r="I762" t="n">
         <v>0</v>
